--- a/export_2024-10-14/gantt_chart_export_with_sprint_tables.xlsx
+++ b/export_2024-10-14/gantt_chart_export_with_sprint_tables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="84">
   <si>
     <t>Task</t>
   </si>
@@ -63,12 +63,12 @@
     <t>Sponsor meeting @3:30</t>
   </si>
   <si>
+    <t>Team Charter</t>
+  </si>
+  <si>
     <t>Conduct Reseach on Project options</t>
   </si>
   <si>
-    <t>Team Charter</t>
-  </si>
-  <si>
     <t>Email sponsor ConOps and questions for review</t>
   </si>
   <si>
@@ -84,12 +84,12 @@
     <t>Functional Requirements &amp; Functional Block Diagram</t>
   </si>
   <si>
+    <t>PSR2</t>
+  </si>
+  <si>
     <t>Sponsor Meeting 3 Questions 9/18/2024</t>
   </si>
   <si>
-    <t>PSR2</t>
-  </si>
-  <si>
     <t>Trades &amp; Point Design</t>
   </si>
   <si>
@@ -102,30 +102,30 @@
     <t>Email Jake and Diego about Proposal draft</t>
   </si>
   <si>
+    <t>Key personal- in Proposal</t>
+  </si>
+  <si>
+    <t>Related Work- in proposal</t>
+  </si>
+  <si>
+    <t>Signatures and resumes in Proposal</t>
+  </si>
+  <si>
+    <t>Customer Furnished Equipment</t>
+  </si>
+  <si>
+    <t>Data Restriction</t>
+  </si>
+  <si>
+    <t>Subcontractors and consultants</t>
+  </si>
+  <si>
+    <t>Facilities/ Equipment in proposal</t>
+  </si>
+  <si>
     <t>Statement of Work in Proposal</t>
   </si>
   <si>
-    <t>Subcontractors and consultants</t>
-  </si>
-  <si>
-    <t>Facilities/ Equipment in proposal</t>
-  </si>
-  <si>
-    <t>Key personal- in Proposal</t>
-  </si>
-  <si>
-    <t>Related Work- in proposal</t>
-  </si>
-  <si>
-    <t>Signatures and resumes in Proposal</t>
-  </si>
-  <si>
-    <t>Customer Furnished Equipment</t>
-  </si>
-  <si>
-    <t>Data Restriction</t>
-  </si>
-  <si>
     <t>Functional Block Diagram , functional requirements in proposal</t>
   </si>
   <si>
@@ -138,24 +138,21 @@
     <t>Team Evaluation:Proposal</t>
   </si>
   <si>
+    <t>Get Jim's Signature for Proposal</t>
+  </si>
+  <si>
     <t>Get signatures from Sponsors for Proposal</t>
   </si>
   <si>
-    <t>Get Jim's Signature for Proposal</t>
-  </si>
-  <si>
     <t>SBD</t>
   </si>
   <si>
-    <t>Assign everyone to a part of the Systems Requirement Document</t>
+    <t>Break up work for PDR and CDR</t>
   </si>
   <si>
     <t>Schedule a dry run for PDR</t>
   </si>
   <si>
-    <t>Break up work for PDR and CDR</t>
-  </si>
-  <si>
     <t>John, Amber</t>
   </si>
   <si>
@@ -174,15 +171,15 @@
     <t>Aidan</t>
   </si>
   <si>
+    <t>Carly</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t>Matthew</t>
   </si>
   <si>
-    <t>Carly</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>Carly, John, Matthew, Amber</t>
   </si>
   <si>
@@ -192,163 +189,64 @@
     <t>Todo</t>
   </si>
   <si>
+    <t>PSR3</t>
+  </si>
+  <si>
     <t>System Requirements Verification Matrix</t>
   </si>
   <si>
-    <t>PSR3</t>
-  </si>
-  <si>
-    <t>Camera Research</t>
+    <t>Requirements Scrimmage 1</t>
   </si>
   <si>
     <t>Research Project Fundamentals, modeling &amp; Prototype Plan</t>
   </si>
   <si>
-    <t>Requirements Scrimmage slides setup</t>
-  </si>
-  <si>
-    <t>Requirements Scrimmage 1</t>
-  </si>
-  <si>
-    <t>Yolo equation for prototyping plan</t>
-  </si>
-  <si>
-    <t>Power Equation for Prototyping Plan</t>
-  </si>
-  <si>
-    <t>Camera Equation for prototyping plan</t>
-  </si>
-  <si>
-    <t>SRD-Definitions, acronyms, and abbreviations</t>
-  </si>
-  <si>
-    <t>Email Jake and Diego about scheduling a tour</t>
-  </si>
-  <si>
-    <t>SRD- Reference spec sheet for cameras</t>
-  </si>
-  <si>
-    <t>Send requirements matrix to Jake and Diego</t>
-  </si>
-  <si>
-    <t>SRD-Standards and help out with referenced documents</t>
-  </si>
-  <si>
-    <t>All requirements by system for SRD</t>
-  </si>
-  <si>
-    <t>verification matrix for SRD</t>
-  </si>
-  <si>
-    <t>SRD-requirements verification</t>
-  </si>
-  <si>
-    <t>Reference for SRD</t>
-  </si>
-  <si>
-    <t>Email Jake and Diego PDR information</t>
-  </si>
-  <si>
-    <t>System Requirements Document:8.0-Ability to formulate a design problem for specified needs and technical requirements (O2a)</t>
-  </si>
-  <si>
-    <t>Background for scrimmage slides</t>
-  </si>
-  <si>
-    <t>Requirements for slides</t>
-  </si>
-  <si>
-    <t>Summary for scrimmage slides</t>
-  </si>
-  <si>
-    <t>Importance and Significance for scrimmage slides</t>
-  </si>
-  <si>
-    <t>System Requirements Document: 1.0-Introduction and Scope (Background, Need, ConOps, Stakeholders)</t>
-  </si>
-  <si>
-    <t>System Requirements Document:2.0-Applicable Documents (references in SRD including Standards)</t>
-  </si>
-  <si>
-    <t>System Requirements Document:7.0-Notes</t>
-  </si>
-  <si>
-    <t>System Requirements Document: 3.0-Definitions, Acronyms and Abbreviations</t>
-  </si>
-  <si>
-    <t>System Requirements Document:6.0-System Requirements Verification Matrix (SRVM)</t>
-  </si>
-  <si>
-    <t>System Requirements Document: 4.0-Requirements</t>
-  </si>
-  <si>
-    <t>System Requirements Document:5.0-Verification Requirements</t>
-  </si>
-  <si>
     <t>Requirements Flow Down</t>
   </si>
   <si>
     <t>Requirements Scrimmage 2</t>
   </si>
   <si>
-    <t>scope for SRD</t>
-  </si>
-  <si>
     <t>System Requirements Document</t>
   </si>
   <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>In Review</t>
+  </si>
+  <si>
+    <t>Drawing/SDD</t>
+  </si>
+  <si>
+    <t>PSR4</t>
+  </si>
+  <si>
+    <t>Minimum Viable Product Definition</t>
+  </si>
+  <si>
+    <t>Verification Procedures</t>
+  </si>
+  <si>
+    <t>PDR Presentation</t>
+  </si>
+  <si>
+    <t>Preliminary Design Review Presentation</t>
+  </si>
+  <si>
+    <t>PDR Team Eval</t>
+  </si>
+  <si>
     <t>Team Evaluation: System Requirements</t>
   </si>
   <si>
-    <t>Edit Code for PDR to include individual tasks for each team member with hours</t>
-  </si>
-  <si>
-    <t>PDR-3.0	Design Concept Trade Studies, Point Design, “1st order” analysis &amp; experimental results	(15) 4.0	Risk/Mitigation									(10) 5.0	Analysis (Models &amp; Analysis MVP 1, MVP 1 Definition &amp; Experimental Results)</t>
-  </si>
-  <si>
-    <t>PDR-7.0	Project Plan, Status, Deliverables, &amp; Budget Analysis</t>
-  </si>
-  <si>
-    <t>PDR- 2.0	System Requirements, System Architecture &amp; Requirement flow-down</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>PSR4</t>
-  </si>
-  <si>
-    <t>Verification Procedures</t>
-  </si>
-  <si>
-    <t>Drawing/SDD</t>
-  </si>
-  <si>
-    <t>Minimum Viable Product Definition</t>
-  </si>
-  <si>
-    <t>PDR Presentation</t>
-  </si>
-  <si>
-    <t>Preliminary Design Review Presentation</t>
-  </si>
-  <si>
-    <t>PDR Team Eval</t>
-  </si>
-  <si>
     <t>Team Evaluation: Preliminary Design Review</t>
   </si>
   <si>
-    <t>Matthew, Amber</t>
-  </si>
-  <si>
     <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>PSR5</t>
@@ -494,10 +392,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>304846</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>27</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>18</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -515,7 +413,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13649325" y="190500"/>
-          <a:ext cx="22860046" cy="13716027"/>
+          <a:ext cx="9144018" cy="5486411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -537,10 +435,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>304846</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>27</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>18</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -558,7 +456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13649325" y="190500"/>
-          <a:ext cx="22860046" cy="13716027"/>
+          <a:ext cx="9144018" cy="5486411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -580,10 +478,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>304846</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>27</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>18</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -601,7 +499,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13649325" y="190500"/>
-          <a:ext cx="22860046" cy="13716027"/>
+          <a:ext cx="9144018" cy="5486411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,10 +521,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>304846</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>27</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>18</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -644,7 +542,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13649325" y="190500"/>
-          <a:ext cx="22860046" cy="13716027"/>
+          <a:ext cx="9144018" cy="5486411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -666,10 +564,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>304846</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>27</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>18</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -687,7 +585,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13649325" y="190500"/>
-          <a:ext cx="22860046" cy="13716027"/>
+          <a:ext cx="9144018" cy="5486411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -709,10 +607,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>304846</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>27</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>18</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -730,7 +628,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13649325" y="190500"/>
-          <a:ext cx="22860046" cy="13716027"/>
+          <a:ext cx="9144018" cy="5486411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1118,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1069,7 @@
         <v>45539</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1185,7 +1083,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3">
         <v>45541</v>
@@ -1194,13 +1092,13 @@
         <v>45544</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1208,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>45541</v>
@@ -1217,13 +1115,13 @@
         <v>45544</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1240,7 +1138,7 @@
         <v>45544</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1254,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>45544</v>
@@ -1263,7 +1161,7 @@
         <v>45545</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1274,71 +1172,71 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>45546</v>
+        <v>45544</v>
       </c>
       <c r="D7" s="3">
         <v>45546</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3">
-        <v>45544</v>
+        <v>45540</v>
       </c>
       <c r="D8" s="3">
         <v>45546</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>45540</v>
+        <v>45546</v>
       </c>
       <c r="D9" s="3">
         <v>45546</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1346,7 +1244,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3">
         <v>45546</v>
@@ -1355,7 +1253,7 @@
         <v>45547</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1366,48 +1264,48 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>45547</v>
+        <v>45551</v>
       </c>
       <c r="D11" s="3">
         <v>45551</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3">
-        <v>45551</v>
+        <v>45547</v>
       </c>
       <c r="D12" s="3">
         <v>45551</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1418,19 +1316,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>45551</v>
+        <v>45541</v>
       </c>
       <c r="D13" s="3">
         <v>45552</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1441,19 +1339,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="3">
-        <v>45541</v>
+        <v>45551</v>
       </c>
       <c r="D14" s="3">
         <v>45552</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1470,7 +1368,7 @@
         <v>45553</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1493,7 +1391,7 @@
         <v>45554</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1507,7 +1405,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3">
         <v>45554</v>
@@ -1516,7 +1414,7 @@
         <v>45554</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1530,7 +1428,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3">
         <v>45551</v>
@@ -1539,7 +1437,7 @@
         <v>45555</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1553,7 +1451,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3">
         <v>45555</v>
@@ -1562,7 +1460,7 @@
         <v>45555</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1576,7 +1474,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" s="3">
         <v>45551</v>
@@ -1585,7 +1483,7 @@
         <v>45556</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1608,13 +1506,13 @@
         <v>45556</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21">
-        <v>0.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1622,7 +1520,7 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3">
         <v>45551</v>
@@ -1631,7 +1529,7 @@
         <v>45556</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1645,7 +1543,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3">
         <v>45551</v>
@@ -1654,7 +1552,7 @@
         <v>45556</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1668,7 +1566,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3">
         <v>45551</v>
@@ -1677,13 +1575,13 @@
         <v>45556</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1691,7 +1589,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3">
         <v>45551</v>
@@ -1700,13 +1598,13 @@
         <v>45556</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1714,7 +1612,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3">
         <v>45551</v>
@@ -1723,7 +1621,7 @@
         <v>45556</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1737,7 +1635,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3">
         <v>45551</v>
@@ -1746,13 +1644,10 @@
         <v>45556</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
-      </c>
-      <c r="G27">
-        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1760,7 +1655,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3">
         <v>45551</v>
@@ -1769,7 +1664,7 @@
         <v>45557</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1783,7 +1678,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3">
         <v>45558</v>
@@ -1792,7 +1687,7 @@
         <v>45558</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1803,48 +1698,48 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="D30" s="3">
         <v>45558</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3">
-        <v>45551</v>
+        <v>45558</v>
       </c>
       <c r="D31" s="3">
         <v>45558</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1861,7 +1756,7 @@
         <v>45559</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -1875,7 +1770,7 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3">
         <v>45558</v>
@@ -1884,13 +1779,13 @@
         <v>45559</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
       </c>
       <c r="G33">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1898,7 +1793,7 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3">
         <v>45558</v>
@@ -1907,13 +1802,13 @@
         <v>45559</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
       </c>
       <c r="G34">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1921,7 +1816,7 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" s="3">
         <v>45554</v>
@@ -1930,7 +1825,7 @@
         <v>45561</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -1944,22 +1839,19 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3">
-        <v>45562</v>
+        <v>45565</v>
       </c>
       <c r="D36" s="3">
-        <v>45564</v>
+        <v>45565</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36">
-        <v>0.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1976,10 +1868,10 @@
         <v>45565</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1990,7 +1882,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3">
         <v>45565</v>
@@ -1999,45 +1891,22 @@
         <v>45565</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D39" s="3">
-        <v>45565</v>
-      </c>
-      <c r="E39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="F40" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="4">
-        <v>41</v>
+      <c r="G39" s="4">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:H39">
+  <conditionalFormatting sqref="A1:H38">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -2045,7 +1914,7 @@
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H39">
+  <conditionalFormatting sqref="A2:H38">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$F2="Todo"</formula>
     </cfRule>
@@ -2057,7 +1926,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2098,76 +1967,76 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>45561</v>
+        <v>45554</v>
       </c>
       <c r="D2" s="3">
         <v>45566</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>45554</v>
+        <v>45561</v>
       </c>
       <c r="D3" s="3">
         <v>45566</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>45568</v>
+        <v>45547</v>
       </c>
       <c r="D4" s="3">
         <v>45568</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2179,33 +2048,30 @@
         <v>45568</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>1.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="D6" s="3">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2213,802 +2079,97 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>45547</v>
+        <v>45566</v>
       </c>
       <c r="D7" s="3">
-        <v>45568</v>
+        <v>45573</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>0.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45568</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45573</v>
+      </c>
+      <c r="E8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45568</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
-      </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>0.25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="D9" s="3">
-        <v>45568</v>
+        <v>45575</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>0.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>45565</v>
+        <v>45579</v>
       </c>
       <c r="D10" s="3">
-        <v>45568</v>
+        <v>45579</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45569</v>
-      </c>
-      <c r="E11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3">
-        <v>45567</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45569</v>
-      </c>
-      <c r="E12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45569</v>
-      </c>
-      <c r="E13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45569</v>
-      </c>
-      <c r="E14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D15" s="3">
-        <v>45569</v>
-      </c>
-      <c r="E15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D16" s="3">
-        <v>45569</v>
-      </c>
-      <c r="E16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45569</v>
-      </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45569</v>
-      </c>
-      <c r="E18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D19" s="3">
-        <v>45569</v>
-      </c>
-      <c r="E19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="3">
-        <v>45567</v>
-      </c>
-      <c r="D20" s="3">
-        <v>45571</v>
-      </c>
-      <c r="E20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3">
-        <v>45562</v>
-      </c>
-      <c r="D21" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="3">
-        <v>45568</v>
-      </c>
-      <c r="D22" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="3">
-        <v>45568</v>
-      </c>
-      <c r="D23" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="3">
-        <v>45568</v>
-      </c>
-      <c r="D24" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="3">
-        <v>45568</v>
-      </c>
-      <c r="D25" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3">
-        <v>45562</v>
-      </c>
-      <c r="D26" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3">
-        <v>45572</v>
-      </c>
-      <c r="D27" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3">
-        <v>45562</v>
-      </c>
-      <c r="D28" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="3">
-        <v>45562</v>
-      </c>
-      <c r="D29" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3">
-        <v>45562</v>
-      </c>
-      <c r="D30" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3">
-        <v>45562</v>
-      </c>
-      <c r="D31" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="3">
-        <v>45562</v>
-      </c>
-      <c r="D32" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="3">
-        <v>45562</v>
-      </c>
-      <c r="D33" s="3">
-        <v>45572</v>
-      </c>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="3">
-        <v>45566</v>
-      </c>
-      <c r="D34" s="3">
-        <v>45573</v>
-      </c>
-      <c r="E34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="3">
-        <v>45568</v>
-      </c>
-      <c r="D35" s="3">
-        <v>45573</v>
-      </c>
-      <c r="E35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D36" s="3">
-        <v>45573</v>
-      </c>
-      <c r="E36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="3">
-        <v>45566</v>
-      </c>
-      <c r="D37" s="3">
-        <v>45575</v>
-      </c>
-      <c r="E37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="3">
-        <v>45562</v>
-      </c>
-      <c r="D38" s="3">
-        <v>45575</v>
-      </c>
-      <c r="E38" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="3">
-        <v>45566</v>
-      </c>
-      <c r="D39" s="3">
-        <v>45576</v>
-      </c>
-      <c r="E39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="3">
-        <v>45579</v>
-      </c>
-      <c r="D40" s="3">
-        <v>45579</v>
-      </c>
-      <c r="E40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D41" s="3">
-        <v>45583</v>
-      </c>
-      <c r="E41" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D42" s="3">
-        <v>45583</v>
-      </c>
-      <c r="E42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="3">
-        <v>45565</v>
-      </c>
-      <c r="D43" s="3">
-        <v>45583</v>
-      </c>
-      <c r="E43" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="F44" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="4">
-        <v>16.5</v>
+      <c r="G11" s="4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:H43">
+  <conditionalFormatting sqref="A1:H10">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -3016,7 +2177,7 @@
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H43">
+  <conditionalFormatting sqref="A2:H10">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$F2="Todo"</formula>
     </cfRule>
@@ -3028,7 +2189,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3069,50 +2230,50 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>45567</v>
+        <v>45573</v>
       </c>
       <c r="D2" s="3">
         <v>45580</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>45573</v>
+        <v>45567</v>
       </c>
       <c r="D3" s="3">
         <v>45580</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>45573</v>
@@ -3121,15 +2282,15 @@
         <v>45580</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -3141,58 +2302,58 @@
         <v>45580</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>45586</v>
+        <v>45559</v>
       </c>
       <c r="D6" s="3">
         <v>45586</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>45559</v>
+        <v>45586</v>
       </c>
       <c r="D7" s="3">
         <v>45586</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3204,10 +2365,10 @@
         <v>45587</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3224,10 +2385,10 @@
         <v>45593</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3235,7 +2396,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -3247,15 +2408,15 @@
         <v>45593</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -3267,15 +2428,15 @@
         <v>45594</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -3287,65 +2448,45 @@
         <v>45594</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="D13" s="3">
-        <v>45594</v>
+        <v>45600</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3">
-        <v>45600</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45600</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="F15" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G14" s="4">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:H14">
+  <conditionalFormatting sqref="A1:H13">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -3353,7 +2494,7 @@
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H14">
+  <conditionalFormatting sqref="A2:H13">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$F2="Todo"</formula>
     </cfRule>
@@ -3406,7 +2547,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -3418,10 +2559,10 @@
         <v>45601</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3438,10 +2579,10 @@
         <v>45607</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3461,10 +2602,10 @@
         <v>45614</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3540,7 +2681,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -3552,10 +2693,10 @@
         <v>45617</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3572,10 +2713,10 @@
         <v>45621</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3595,10 +2736,10 @@
         <v>45628</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3606,7 +2747,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -3618,15 +2759,15 @@
         <v>45629</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -3638,10 +2779,10 @@
         <v>45629</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3658,10 +2799,10 @@
         <v>45635</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3669,7 +2810,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3681,15 +2822,15 @@
         <v>45636</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -3701,10 +2842,10 @@
         <v>45636</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8">
